--- a/example.xlsx
+++ b/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\actual\junior_task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3C8A5-27E0-44F4-9F5A-A32718946A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF573E12-1BE5-49B3-A171-E7C6F0F56753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{4DA4F0C1-710E-45A3-AEDB-ACE07162C781}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{4DA4F0C1-710E-45A3-AEDB-ACE07162C781}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Код</t>
   </si>
@@ -61,6 +52,9 @@
   </si>
   <si>
     <t>Проект 4</t>
+  </si>
+  <si>
+    <t>Проект 6</t>
   </si>
 </sst>
 </file>
@@ -91,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,11 +108,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +132,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,35 +450,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7495787-CD17-4B8A-A0CC-D0B4C78305DF}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.9296875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>44889</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>44915</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5">
         <v>44945</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>567</v>
       </c>
@@ -524,7 +530,7 @@
         <v>86.4696</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -548,7 +554,7 @@
         <v>4.3940000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -572,7 +578,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>99</v>
       </c>
@@ -598,7 +604,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -619,6 +625,22 @@
       <c r="H7" s="2">
         <v>10.1365</v>
       </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
